--- a/code/params/150_graph_params.xlsx
+++ b/code/params/150_graph_params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>graph_id</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.32</t>
   </si>
 </sst>
 </file>
@@ -397,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -437,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -454,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -468,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -522,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -536,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -604,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -621,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -638,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -675,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -689,10 +704,10 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -774,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
